--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700C415-6BC9-4B9A-8424-A330B60C8E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A970F-701D-4FF0-BF31-04C2165EFD4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="envs" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,39 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>param \ environment</t>
+    <t>param</t>
   </si>
   <si>
-    <t>name</t>
+    <t>value</t>
   </si>
   <si>
-    <t>sheet</t>
+    <t>5.1ECS</t>
   </si>
   <si>
-    <t>range_start</t>
-  </si>
-  <si>
-    <t>range_end</t>
-  </si>
-  <si>
-    <t>env01</t>
-  </si>
-  <si>
-    <t>env02</t>
-  </si>
-  <si>
-    <t>Env 01</t>
-  </si>
-  <si>
-    <t>Env 02</t>
-  </si>
-  <si>
-    <t>Env01</t>
-  </si>
-  <si>
-    <t>Env02</t>
+    <t>ECS sheet</t>
   </si>
 </sst>
 </file>
@@ -535,73 +514,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMC5"/>
+  <dimension ref="A1:AMB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.69921875" style="2" customWidth="1"/>
-    <col min="4" max="1017" width="8.796875" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" style="2" customWidth="1"/>
+    <col min="3" max="1016" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A970F-701D-4FF0-BF31-04C2165EFD4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50078BF1-DA48-47A1-B076-8F36D1E27691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>param</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>ECS sheet</t>
+  </si>
+  <si>
+    <t>VPC sheet</t>
+  </si>
+  <si>
+    <t>2.1VPC</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <dimension ref="A1:AMB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -544,8 +550,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50078BF1-DA48-47A1-B076-8F36D1E27691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE87489-CB30-4E56-90C3-0F4812BB6802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>param</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>2.1VPC</t>
+  </si>
+  <si>
+    <t>Subnet sheet</t>
+  </si>
+  <si>
+    <t>2.2Subnet</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
   <dimension ref="A1:AMB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -558,8 +564,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE87489-CB30-4E56-90C3-0F4812BB6802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3947330-4267-4958-A3A9-49D8883432A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>param</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>2.2Subnet</t>
+  </si>
+  <si>
+    <t>Secgroup sheet</t>
+  </si>
+  <si>
+    <t>2.3SecurityGroup</t>
   </si>
 </sst>
 </file>
@@ -126,23 +132,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,18 +535,18 @@
   <dimension ref="A1:AMB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="7" customWidth="1"/>
     <col min="3" max="1016" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -548,32 +554,36 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3947330-4267-4958-A3A9-49D8883432A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674F2494-C620-4B4C-8E0B-D037CFD4941F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>param</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>2.3SecurityGroup</t>
+  </si>
+  <si>
+    <t>Enterprise Proj sheet</t>
+  </si>
+  <si>
+    <t>1.1EnterpriseProject</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMB5"/>
+  <dimension ref="A1:AMB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -585,6 +591,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674F2494-C620-4B4C-8E0B-D037CFD4941F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274BB239-B520-4DDE-9F9C-E9735D4CF673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>param</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>1.1EnterpriseProject</t>
+  </si>
+  <si>
+    <t>ECS last wave</t>
   </si>
 </sst>
 </file>
@@ -538,11 +541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMB6"/>
+  <dimension ref="A1:AMB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -569,33 +570,41 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274BB239-B520-4DDE-9F9C-E9735D4CF673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224DF434-9E9A-4F38-8D2C-1E4C163AF323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2232" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>param</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>ECS last wave</t>
+  </si>
+  <si>
+    <t>EIP sheet</t>
+  </si>
+  <si>
+    <t>2.4EIP</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMB7"/>
+  <dimension ref="A1:AMB8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -608,6 +614,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224DF434-9E9A-4F38-8D2C-1E4C163AF323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FAFA6-8D1F-45D2-BCE3-854EB00A5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="2232" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>param</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>2.4EIP</t>
+  </si>
+  <si>
+    <t>NAT sheet</t>
+  </si>
+  <si>
+    <t>2.5NAT</t>
+  </si>
+  <si>
+    <t>NAT rules sheet</t>
+  </si>
+  <si>
+    <t>2.6NATrules</t>
   </si>
 </sst>
 </file>
@@ -547,9 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMB8"/>
+  <dimension ref="A1:AMB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -622,6 +636,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Terraform\lld-to-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FAFA6-8D1F-45D2-BCE3-854EB00A5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523A6417-48D4-469A-954D-886B7B66CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2232" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="15576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>param</t>
   </si>
@@ -63,9 +63,6 @@
     <t>1.1EnterpriseProject</t>
   </si>
   <si>
-    <t>ECS last wave</t>
-  </si>
-  <si>
     <t>EIP sheet</t>
   </si>
   <si>
@@ -82,6 +79,15 @@
   </si>
   <si>
     <t>2.6NATrules</t>
+  </si>
+  <si>
+    <t>RDS sheet</t>
+  </si>
+  <si>
+    <t>6.1RDS</t>
+  </si>
+  <si>
+    <t>Resource last wave</t>
   </si>
 </sst>
 </file>
@@ -559,20 +565,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMB10"/>
+  <dimension ref="A1:AMB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="7" customWidth="1"/>
-    <col min="3" max="1016" width="8.796875" style="1"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="7" customWidth="1"/>
+    <col min="3" max="1016" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -588,15 +594,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -604,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -612,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -620,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -628,28 +634,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
